--- a/Submission/STA380GroupForm（老年社团棋盘活动娱乐室）.xlsx
+++ b/Submission/STA380GroupForm（老年社团棋盘活动娱乐室）.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="44">
   <si>
     <t>If left blank, you will be assigned a number.</t>
   </si>
@@ -127,6 +127,24 @@
   </si>
   <si>
     <t>Student 5</t>
+  </si>
+  <si>
+    <t>Yanming Zhao</t>
+  </si>
+  <si>
+    <t>zhaoy439</t>
+  </si>
+  <si>
+    <t>Yanming41</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>Yanming41 (YM6D)</t>
+    </r>
   </si>
   <si>
     <t>Student 6</t>
@@ -237,11 +255,11 @@
     <xf borderId="0" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
@@ -656,41 +674,53 @@
       <c r="A25" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
+      <c r="B25" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D25" s="5">
+        <v>1.010452895E9</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
+      <c r="A26" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="11" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="11" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" ht="15.75" customHeight="1">
       <c r="A30" s="11" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="11" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32" ht="15.75" customHeight="1"/>
@@ -1669,7 +1699,8 @@
     <hyperlink r:id="rId2" ref="F22"/>
     <hyperlink r:id="rId3" ref="F23"/>
     <hyperlink r:id="rId4" ref="F24"/>
+    <hyperlink r:id="rId5" ref="F25"/>
   </hyperlinks>
-  <drawing r:id="rId5"/>
+  <drawing r:id="rId6"/>
 </worksheet>
 </file>